--- a/电子签约平台/流程梳理/硬件资源规划.xlsx
+++ b/电子签约平台/流程梳理/硬件资源规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <t>slb(</t>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <r>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实施之后的负载</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -136,7 +152,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>mysql-rds</t>
+      <t>ecs</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,130 +175,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>oss</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装centos7-64位系统,web平台+api平台 + cfca实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>mongodb</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阿里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>redis</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实施之后的负载</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可升级情况下，购买低档配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可升级情况下，购买低档配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阿里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ecs</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阿里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>oss</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装centos7-64位系统,web平台+api平台 + cfca实施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rocketMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级域名:easysigncloud.com,二级域名：
-www.easysigncloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          1+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以java人员实际搭建需求为准</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>activeMQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些先使用2台esc服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,13 +304,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -642,7 +614,7 @@
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -684,87 +656,79 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="36.75" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" ht="36.75" customHeight="1">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="33" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/电子签约平台/流程梳理/硬件资源规划.xlsx
+++ b/电子签约平台/流程梳理/硬件资源规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <t>slb(</t>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装centos7-64位系统,web平台+api平台 + cfca实施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>域名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +245,30 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实施服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">安装centos7-64位系统,web平台+api平台 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑cfca应该会成为一个瓶颈，所以单独独立出来一个机器先</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,8 +334,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D12"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -661,67 +687,78 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="2:4" ht="36.75" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="27">
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="36.75" customHeight="1">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="33" customHeight="1">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="33" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/流程梳理/硬件资源规划.xlsx
+++ b/电子签约平台/流程梳理/硬件资源规划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
       <t>slb(</t>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>域名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,14 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这些先使用2台esc服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>cfca</t>
     </r>
@@ -264,11 +252,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">安装centos7-64位系统,web平台+api平台 </t>
+    <t>暂时先合并使用1台esc服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时先使用1台esc服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">web平台+api平台 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需带宽，cpu:4核8g，数据盘1：500g,操作系统:centon7-64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需带宽，cpu:4核8g，数据盘1：200g,操作系统:centon7-64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽:10m，cpu:4核8g，数据盘1：200g,操作系统:centon7-64位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考虑cfca应该会成为一个瓶颈，所以单独独立出来一个机器先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽:10m，cpu:4核8g，数据盘1：200g,操作系统:centon7-64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存储(开发阶段需要使用，优先)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量:1tb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,6 +358,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -341,7 +374,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -648,11 +681,12 @@
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -662,84 +696,99 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5" ht="14.25" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="27.75">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="27.75">
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:4" ht="27">
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="36.75" customHeight="1">
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="29.25" customHeight="1">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" customHeight="1">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -747,24 +796,23 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33" customHeight="1">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="33" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
+  <mergeCells count="3">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
